--- a/biology/Histoire de la zoologie et de la botanique/William_Perry_Hay/William_Perry_Hay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Perry_Hay/William_Perry_Hay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Perry Hay est un zoologiste américain, né le 8 décembre 1872 à Eureka (Illinois) et mort en 1947.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du paléontologue Oliver Perry Hay (1846-1930).
 Hay fait ses études à l’université Butler où il obtient son Bachelor of Sciences en 1891 et son Master of Sciences en 1892. Il enseigne la zoologie à la Central High School de Washington D.C. de 1892 à 1989. Il dirige le département de biologie dans ce même établissement de 1898 à 1900 puis enseigne l’histoire naturelle à l’université Harvard de 1900 à 1908. Il revient à Washington où il dirige le département de biologie et de chimie de 1908 à 1931. Il enseigne la biologie à la McKinley High School de 1931 à 1934.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biographie de l’Université de Floride (en anglais)</t>
         </is>
